--- a/arquivos/teste-planilha.xlsx
+++ b/arquivos/teste-planilha.xlsx
@@ -20,18 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t xml:space="preserve">03-02-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loja a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">saco</t>
+  </si>
   <si>
     <t xml:space="preserve">02-02-2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cimento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">loja a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saco</t>
   </si>
   <si>
     <t xml:space="preserve">tijolo</t>
@@ -187,19 +190,19 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>2</v>
